--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Pruned_Ratios_combined.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Tata Consultancy Services Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3D92BD-3BD3-4775-9A89-5E2367A36249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -184,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,13 +254,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -292,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -326,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -360,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,14 +551,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -729,34 +748,34 @@
         <v>69.86</v>
       </c>
       <c r="AA2">
-        <v>71.90000000000001</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="AB2">
         <v>68786.33</v>
       </c>
       <c r="AC2">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AD2">
         <v>28.05</v>
       </c>
       <c r="AE2">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AF2">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="AG2">
         <v>20.71</v>
       </c>
       <c r="AH2">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AI2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -782,7 +801,7 @@
         <v>229.52</v>
       </c>
       <c r="I3">
-        <v>68.18000000000001</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="J3">
         <v>62.92</v>
@@ -812,7 +831,7 @@
         <v>47.78</v>
       </c>
       <c r="S3">
-        <v>36.59</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="T3">
         <v>151.26</v>
@@ -821,7 +840,7 @@
         <v>2.29</v>
       </c>
       <c r="V3">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="W3">
         <v>489.56</v>
@@ -851,7 +870,7 @@
         <v>8.34</v>
       </c>
       <c r="AF3">
-        <v>75.68000000000001</v>
+        <v>75.680000000000007</v>
       </c>
       <c r="AG3">
         <v>16.7</v>
@@ -863,7 +882,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -877,16 +896,16 @@
         <v>41.9</v>
       </c>
       <c r="E4">
-        <v>82.34999999999999</v>
+        <v>82.35</v>
       </c>
       <c r="F4">
-        <v>82.34999999999999</v>
+        <v>82.35</v>
       </c>
       <c r="G4">
         <v>11.5</v>
       </c>
       <c r="H4">
-        <v>152.67</v>
+        <v>152.66999999999999</v>
       </c>
       <c r="I4">
         <v>46.16</v>
@@ -922,7 +941,7 @@
         <v>34.9</v>
       </c>
       <c r="T4">
-        <v>138.77</v>
+        <v>138.77000000000001</v>
       </c>
       <c r="U4">
         <v>1.99</v>
@@ -949,7 +968,7 @@
         <v>119978.83</v>
       </c>
       <c r="AC4">
-        <v>8.029999999999999</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="AD4">
         <v>26.56</v>
@@ -958,7 +977,7 @@
         <v>8.06</v>
       </c>
       <c r="AF4">
-        <v>70.04000000000001</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="AG4">
         <v>14.95</v>
@@ -970,7 +989,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1035,7 +1054,7 @@
         <v>2.04</v>
       </c>
       <c r="V5">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="W5">
         <v>1078.17</v>
@@ -1053,7 +1072,7 @@
         <v>72.42</v>
       </c>
       <c r="AB5">
-        <v>78945.39999999999</v>
+        <v>78945.399999999994</v>
       </c>
       <c r="AC5">
         <v>4.26</v>
@@ -1077,7 +1096,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1157,7 +1176,7 @@
         <v>70.83</v>
       </c>
       <c r="AA6">
-        <v>73.20999999999999</v>
+        <v>73.209999999999994</v>
       </c>
       <c r="AB6">
         <v>51379.51</v>
@@ -1172,7 +1191,7 @@
         <v>2.36</v>
       </c>
       <c r="AF6">
-        <v>70.81999999999999</v>
+        <v>70.819999999999993</v>
       </c>
       <c r="AG6">
         <v>3.96</v>
@@ -1184,7 +1203,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1216,7 +1235,7 @@
         <v>32.6</v>
       </c>
       <c r="K7">
-        <v>32.55</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="L7">
         <v>28.71</v>
@@ -1234,10 +1253,10 @@
         <v>24.38</v>
       </c>
       <c r="Q7">
-        <v>37.41</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="R7">
-        <v>36.98</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="S7">
         <v>25.04</v>
@@ -1258,7 +1277,7 @@
         <v>69.67</v>
       </c>
       <c r="Y7">
-        <v>64.29000000000001</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="Z7">
         <v>30.33</v>
@@ -1267,7 +1286,7 @@
         <v>35.71</v>
       </c>
       <c r="AB7">
-        <v>149557.76</v>
+        <v>149557.76000000001</v>
       </c>
       <c r="AC7">
         <v>6.49</v>
@@ -1291,7 +1310,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1314,7 +1333,7 @@
         <v>14</v>
       </c>
       <c r="H8">
-        <v>149.58</v>
+        <v>149.58000000000001</v>
       </c>
       <c r="I8">
         <v>47.3</v>
@@ -1344,7 +1363,7 @@
         <v>38.86</v>
       </c>
       <c r="R8">
-        <v>38.05</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="S8">
         <v>29.06</v>
@@ -1371,7 +1390,7 @@
         <v>63.81</v>
       </c>
       <c r="AA8">
-        <v>66.20999999999999</v>
+        <v>66.209999999999994</v>
       </c>
       <c r="AB8">
         <v>228454.71</v>
@@ -1398,7 +1417,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1430,7 +1449,7 @@
         <v>68.38</v>
       </c>
       <c r="K9">
-        <v>68.29000000000001</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="L9">
         <v>56.08</v>
@@ -1466,7 +1485,7 @@
         <v>1.87</v>
       </c>
       <c r="W9">
-        <v>9386.120000000001</v>
+        <v>9386.1200000000008</v>
       </c>
       <c r="X9">
         <v>44.57</v>
@@ -1505,7 +1524,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -1516,7 +1535,7 @@
         <v>65.22</v>
       </c>
       <c r="D10">
-        <v>69.43000000000001</v>
+        <v>69.430000000000007</v>
       </c>
       <c r="E10">
         <v>165.86</v>
@@ -1531,7 +1550,7 @@
         <v>247.43</v>
       </c>
       <c r="I10">
-        <v>84.48999999999999</v>
+        <v>84.49</v>
       </c>
       <c r="J10">
         <v>80.39</v>
@@ -1555,7 +1574,7 @@
         <v>26.4</v>
       </c>
       <c r="Q10">
-        <v>39.38</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="R10">
         <v>38.35</v>
@@ -1567,10 +1586,10 @@
         <v>112.58</v>
       </c>
       <c r="U10">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="V10">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="W10">
         <v>7638.19</v>
@@ -1585,10 +1604,10 @@
         <v>66.33</v>
       </c>
       <c r="AA10">
-        <v>68.31999999999999</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="AB10">
-        <v>303841.66</v>
+        <v>303841.65999999997</v>
       </c>
       <c r="AC10">
         <v>6.27</v>
@@ -1600,7 +1619,7 @@
         <v>6.35</v>
       </c>
       <c r="AF10">
-        <v>66.31999999999999</v>
+        <v>66.319999999999993</v>
       </c>
       <c r="AG10">
         <v>9.48</v>
@@ -1612,15 +1631,15 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
       <c r="B11">
-        <v>94.15000000000001</v>
+        <v>94.15</v>
       </c>
       <c r="C11">
-        <v>94.15000000000001</v>
+        <v>94.15</v>
       </c>
       <c r="D11">
         <v>99.84</v>
@@ -1647,7 +1666,7 @@
         <v>120.2</v>
       </c>
       <c r="L11">
-        <v>94.31999999999999</v>
+        <v>94.32</v>
       </c>
       <c r="M11">
         <v>38.11</v>
@@ -1692,7 +1711,7 @@
         <v>66.08</v>
       </c>
       <c r="AA11">
-        <v>67.95999999999999</v>
+        <v>67.959999999999994</v>
       </c>
       <c r="AB11">
         <v>404383.76</v>
@@ -1707,10 +1726,10 @@
         <v>6.45</v>
       </c>
       <c r="AF11">
-        <v>66.06999999999999</v>
+        <v>66.069999999999993</v>
       </c>
       <c r="AG11">
-        <v>9.460000000000001</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="AH11">
         <v>6.45</v>
@@ -1719,7 +1738,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1754,7 +1773,7 @@
         <v>125.34</v>
       </c>
       <c r="L12">
-        <v>98.31999999999999</v>
+        <v>98.32</v>
       </c>
       <c r="M12">
         <v>34.65</v>
@@ -1784,19 +1803,19 @@
         <v>2.46</v>
       </c>
       <c r="V12">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="W12">
         <v>5962.57</v>
       </c>
       <c r="X12">
-        <v>80.34999999999999</v>
+        <v>80.349999999999994</v>
       </c>
       <c r="Y12">
-        <v>74.93000000000001</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="Z12">
-        <v>19.65</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="AA12">
         <v>25.07</v>
@@ -1826,7 +1845,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1864,13 +1883,13 @@
         <v>117.13</v>
       </c>
       <c r="M13">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="N13">
         <v>34.18</v>
       </c>
       <c r="O13">
-        <v>34.16</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="P13">
         <v>26.87</v>
@@ -1894,10 +1913,10 @@
         <v>4.72</v>
       </c>
       <c r="W13">
-        <v>9540.440000000001</v>
+        <v>9540.44</v>
       </c>
       <c r="X13">
-        <v>34.63</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="Y13">
         <v>32.57</v>
@@ -1906,7 +1925,7 @@
         <v>65.37</v>
       </c>
       <c r="AA13">
-        <v>67.43000000000001</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="AB13">
         <v>491018.85</v>
@@ -1933,7 +1952,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1959,10 +1978,10 @@
         <v>470.52</v>
       </c>
       <c r="I14">
-        <v>160.7</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="J14">
-        <v>152.7</v>
+        <v>152.69999999999999</v>
       </c>
       <c r="K14">
         <v>152.62</v>
@@ -1974,7 +1993,7 @@
         <v>34.15</v>
       </c>
       <c r="N14">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="O14">
         <v>32.43</v>
@@ -1986,7 +2005,7 @@
         <v>30.31</v>
       </c>
       <c r="R14">
-        <v>38.05</v>
+        <v>38.049999999999997</v>
       </c>
       <c r="S14">
         <v>26.35</v>
@@ -2004,7 +2023,7 @@
         <v>4413.95</v>
       </c>
       <c r="X14">
-        <v>38.73</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="Y14">
         <v>36.31</v>
@@ -2040,7 +2059,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2051,7 +2070,7 @@
         <v>131.15</v>
       </c>
       <c r="D15">
-        <v>140.77</v>
+        <v>140.77000000000001</v>
       </c>
       <c r="E15">
         <v>397.2</v>
@@ -2078,7 +2097,7 @@
         <v>132.15</v>
       </c>
       <c r="M15">
-        <v>34.52</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="N15">
         <v>32.82</v>
@@ -2090,7 +2109,7 @@
         <v>25.92</v>
       </c>
       <c r="Q15">
-        <v>33.27</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="R15">
         <v>41.5</v>
@@ -2102,10 +2121,10 @@
         <v>106.91</v>
       </c>
       <c r="U15">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="V15">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="W15">
         <v>3894.24</v>
@@ -2114,7 +2133,7 @@
         <v>36.78</v>
       </c>
       <c r="Y15">
-        <v>34.52</v>
+        <v>34.520000000000003</v>
       </c>
       <c r="Z15">
         <v>63.22</v>
@@ -2123,13 +2142,13 @@
         <v>65.48</v>
       </c>
       <c r="AB15">
-        <v>540949.3</v>
+        <v>540949.30000000005</v>
       </c>
       <c r="AC15">
         <v>5.56</v>
       </c>
       <c r="AD15">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AE15">
         <v>5.59</v>
@@ -2147,7 +2166,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2224,7 +2243,7 @@
         <v>31.73</v>
       </c>
       <c r="Z16">
-        <v>66.45999999999999</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="AA16">
         <v>68.27</v>
@@ -2236,7 +2255,7 @@
         <v>6.02</v>
       </c>
       <c r="AD16">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AE16">
         <v>6.09</v>
@@ -2254,7 +2273,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>88.64</v>
       </c>
       <c r="D17">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="E17">
         <v>198.31</v>
@@ -2322,7 +2341,7 @@
         <v>3.3</v>
       </c>
       <c r="W17">
-        <v>26261.2</v>
+        <v>26261.200000000001</v>
       </c>
       <c r="X17">
         <v>95.89</v>
@@ -2331,7 +2350,7 @@
         <v>88.69</v>
       </c>
       <c r="Z17">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="AA17">
         <v>11.31</v>
@@ -2349,7 +2368,7 @@
         <v>5.21</v>
       </c>
       <c r="AF17">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AG17">
         <v>9.19</v>
@@ -2361,7 +2380,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2372,7 +2391,7 @@
         <v>82.78</v>
       </c>
       <c r="D18">
-        <v>91.93000000000001</v>
+        <v>91.93</v>
       </c>
       <c r="E18">
         <v>202.15</v>
@@ -2396,7 +2415,7 @@
         <v>110.55</v>
       </c>
       <c r="L18">
-        <v>83.68000000000001</v>
+        <v>83.68</v>
       </c>
       <c r="M18">
         <v>33.61</v>
@@ -2438,7 +2457,7 @@
         <v>31.89</v>
       </c>
       <c r="Z18">
-        <v>64.95999999999999</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="AA18">
         <v>68.11</v>
@@ -2447,7 +2466,7 @@
         <v>1172570</v>
       </c>
       <c r="AC18">
-        <v>8.619999999999999</v>
+        <v>8.6199999999999992</v>
       </c>
       <c r="AD18">
         <v>25.65</v>
@@ -2468,7 +2487,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2500,7 +2519,7 @@
         <v>137.18</v>
       </c>
       <c r="K19">
-        <v>135.86</v>
+        <v>135.86000000000001</v>
       </c>
       <c r="L19">
         <v>104.34</v>
@@ -2530,7 +2549,7 @@
         <v>1.39</v>
       </c>
       <c r="U19">
-        <v>2.49</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="V19">
         <v>2.48</v>
@@ -2539,7 +2558,7 @@
         <v>6662.59</v>
       </c>
       <c r="X19">
-        <v>34.87</v>
+        <v>34.869999999999997</v>
       </c>
       <c r="Y19">
         <v>31.92</v>
@@ -2554,13 +2573,13 @@
         <v>1354708.8</v>
       </c>
       <c r="AC19">
-        <v>8.449999999999999</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AD19">
         <v>25.21</v>
       </c>
       <c r="AE19">
-        <v>8.529999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AF19">
         <v>65.12</v>
@@ -2569,13 +2588,13 @@
         <v>17.73</v>
       </c>
       <c r="AH19">
-        <v>8.529999999999999</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="AI19">
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2601,13 +2620,13 @@
         <v>520.09</v>
       </c>
       <c r="I20">
-        <v>153.89</v>
+        <v>153.88999999999999</v>
       </c>
       <c r="J20">
         <v>143.13</v>
       </c>
       <c r="K20">
-        <v>141.23</v>
+        <v>141.22999999999999</v>
       </c>
       <c r="L20">
         <v>106.85</v>
@@ -2628,10 +2647,10 @@
         <v>52.46</v>
       </c>
       <c r="R20">
-        <v>65.06999999999999</v>
+        <v>65.069999999999993</v>
       </c>
       <c r="S20">
-        <v>32.63</v>
+        <v>32.630000000000003</v>
       </c>
       <c r="T20">
         <v>1.58</v>
@@ -2682,7 +2701,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2735,19 +2754,19 @@
         <v>60.39</v>
       </c>
       <c r="R21">
-        <v>75.84999999999999</v>
+        <v>75.849999999999994</v>
       </c>
       <c r="S21">
-        <v>35.95</v>
+        <v>35.950000000000003</v>
       </c>
       <c r="T21">
         <v>1.68</v>
       </c>
       <c r="U21">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="V21">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W21">
         <v>6662.59</v>
@@ -2780,7 +2799,7 @@
         <v>42.29</v>
       </c>
       <c r="AG21">
-        <v>19.49</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="AH21">
         <v>6.95</v>
